--- a/покупки/order_02.09.2024.xlsx
+++ b/покупки/order_02.09.2024.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,22 +413,22 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D2" s="3" t="n">
         <f aca="false">B2*C2</f>
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">D5*0.5</f>
-        <v>955</v>
+        <v>990</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">D5+G2</f>
-        <v>2865</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,7 +466,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="n">
         <f aca="false">SUM(D2:E4)</f>
-        <v>1910</v>
+        <v>1980</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>18</v>

--- a/покупки/order_02.09.2024.xlsx
+++ b/покупки/order_02.09.2024.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t xml:space="preserve">Order Max Uzkikh 15.04.2024</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Max Uzkikh 27.09.2024</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -422,6 +425,10 @@
         <f aca="false">B2*C2</f>
         <v>770</v>
       </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">B2*0.9</f>
+        <v>19.8</v>
+      </c>
       <c r="G2" s="0" t="n">
         <f aca="false">D5*0.5</f>
         <v>990</v>
@@ -445,6 +452,10 @@
         <f aca="false">B3*C3</f>
         <v>850</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">B3*0.9</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -459,6 +470,10 @@
       <c r="D4" s="3" t="n">
         <f aca="false">B4*C4</f>
         <v>360</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">B4*0.9</f>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,6 +485,77 @@
       </c>
       <c r="E5" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">D5*0.9</f>
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <f aca="false">B8*C8</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <f aca="false">B9*C9</f>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <f aca="false">B10*C10</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="n">
+        <f aca="false">SUM(D8:E10)</f>
+        <v>1789</v>
       </c>
     </row>
   </sheetData>
